--- a/otros/gantt ia.xlsx
+++ b/otros/gantt ia.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>TAREA</t>
   </si>
@@ -71,27 +71,6 @@
     <t>Desarrollo de funcionalidad del sistema (casos de uso)</t>
   </si>
   <si>
-    <t xml:space="preserve"> semana 1</t>
-  </si>
-  <si>
-    <t>semana2</t>
-  </si>
-  <si>
-    <t>semana 5</t>
-  </si>
-  <si>
-    <t>semana 6</t>
-  </si>
-  <si>
-    <t>semana 7</t>
-  </si>
-  <si>
-    <t>semana 8</t>
-  </si>
-  <si>
-    <t>semana 9</t>
-  </si>
-  <si>
     <t>programar la pagina web</t>
   </si>
   <si>
@@ -104,7 +83,25 @@
     <t>semana 3 y 4</t>
   </si>
   <si>
-    <t>vacaciones de invierno</t>
+    <t xml:space="preserve"> semana 1 y 2</t>
+  </si>
+  <si>
+    <t>semana 5 y 6</t>
+  </si>
+  <si>
+    <t>semana 7 y 8</t>
+  </si>
+  <si>
+    <t>semana 9 y 10</t>
+  </si>
+  <si>
+    <t>semana 11 y 12</t>
+  </si>
+  <si>
+    <t>semana 13</t>
+  </si>
+  <si>
+    <t>vacaciones inv.</t>
   </si>
 </sst>
 </file>
@@ -177,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -243,22 +240,186 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -267,7 +428,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -275,7 +436,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -285,10 +446,8 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -299,12 +458,16 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -315,42 +478,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -360,133 +542,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -495,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -506,188 +580,185 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -994,273 +1065,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="83.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>3</v>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="34"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="63" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
